--- a/data/groups.xlsx
+++ b/data/groups.xlsx
@@ -24,21 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
-    <t>namecj"N eNcv</t>
+    <t>names(?+)aR</t>
   </si>
   <si>
-    <t>nameM:Up</t>
+    <t>nameX@1mgKc)G</t>
   </si>
   <si>
-    <t>name4&gt;U</t>
+    <t>name|}(`._}</t>
   </si>
   <si>
-    <t>namep`E{(</t>
-  </si>
-  <si>
-    <t>nameyL"@</t>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -385,7 +382,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
